--- a/flow/data/configuration_data/test_data_01-28.xlsx
+++ b/flow/data/configuration_data/test_data_01-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mong275\Local Files\Repos\flow\flow\data\configuration_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C77ED09-E757-4171-8B1E-FD8F5E82B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F1B43-D24E-4969-8D21-C6A4527E44CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{86A2DA22-E95B-4654-A82C-DC6F52698B8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Region</t>
   </si>
@@ -72,9 +72,6 @@
     <t>S5</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -124,6 +121,15 @@
   </si>
   <si>
     <t>fraction</t>
+  </si>
+  <si>
+    <t>T_unit</t>
+  </si>
+  <si>
+    <t>S_units</t>
+  </si>
+  <si>
+    <t>ESV</t>
   </si>
 </sst>
 </file>
@@ -481,20 +487,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7841EF-99F4-4DF5-B67E-F75F37CB36FE}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83984375" customWidth="1"/>
-    <col min="14" max="14" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83984375" customWidth="1"/>
+    <col min="15" max="15" width="9.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,172 +520,234 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2">
-        <v>5000</v>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3">
-        <v>33</v>
+      <c r="P3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4">
-        <v>0.6</v>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
